--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/本年应交增值税.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/本年应交增值税.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,385 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>41.52029</v>
-      </c>
-      <c r="C2" t="n">
-        <v>159.01653</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.63774</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5.52062</v>
-      </c>
-      <c r="G2" t="n">
-        <v>139.02498</v>
-      </c>
-      <c r="H2" t="n">
-        <v>33.47125</v>
-      </c>
-      <c r="I2" t="n">
-        <v>79.18903</v>
-      </c>
-      <c r="J2" t="n">
-        <v>15.04624</v>
-      </c>
-      <c r="K2" t="n">
-        <v>17.35179</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2566.15</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.16269</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.64226</v>
-      </c>
-      <c r="O2" t="n">
-        <v>71.32510000000001</v>
-      </c>
-      <c r="P2" t="n">
-        <v>62.97507</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>6.81066</v>
-      </c>
-      <c r="R2" t="n">
-        <v>13.17802</v>
-      </c>
-      <c r="S2" t="n">
-        <v>7.27426</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.89939</v>
-      </c>
-      <c r="U2" t="n">
-        <v>15.20846</v>
-      </c>
-      <c r="V2" t="n">
-        <v>134.36399</v>
-      </c>
-      <c r="W2" t="n">
-        <v>5.08681</v>
-      </c>
-      <c r="X2" t="n">
-        <v>78.80515</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>432.06459</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>112.31099</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>89.90175000000001</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>6.98953</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>98.47483</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>295.39721</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>90.05257</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>12.57049</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>33.50974</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>21.29089</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>78.20432</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>7.63578</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>35.65761</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>33.50099</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>83.75601</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>222.86085</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>3.27738</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>42.39438</v>
-      </c>
-      <c r="C3" t="n">
-        <v>189.53862</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.90488</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00011</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8.268929999999999</v>
-      </c>
-      <c r="G3" t="n">
-        <v>156.44802</v>
-      </c>
-      <c r="H3" t="n">
-        <v>25.06859</v>
-      </c>
-      <c r="I3" t="n">
-        <v>94.42574999999999</v>
-      </c>
-      <c r="J3" t="n">
-        <v>19.83244</v>
-      </c>
-      <c r="K3" t="n">
-        <v>22.05658</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2843.54</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3.14929</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5.31949</v>
-      </c>
-      <c r="O3" t="n">
-        <v>76.01034</v>
-      </c>
-      <c r="P3" t="n">
-        <v>61.14905</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>6.27211</v>
-      </c>
-      <c r="R3" t="n">
-        <v>18.59392</v>
-      </c>
-      <c r="S3" t="n">
-        <v>6.91523</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.50491</v>
-      </c>
-      <c r="U3" t="n">
-        <v>19.21453</v>
-      </c>
-      <c r="V3" t="n">
-        <v>169.71559</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6.68713</v>
-      </c>
-      <c r="X3" t="n">
-        <v>98.93214999999999</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>465.33541</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>171.24348</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>101.77187</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>10.2282</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>128.08988</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>239.22884</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>91.07437</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>12.56898</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>43.30794</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>26.40646</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>84.28505</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>8.272830000000001</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>42.53302</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>38.9341</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>88.12560000000001</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>241.43059</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>3.85908</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>47.64546</v>
-      </c>
-      <c r="C4" t="n">
-        <v>246.2158</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.82456</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>5.3406</v>
-      </c>
-      <c r="G4" t="n">
-        <v>175.25992</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25.01192</v>
-      </c>
-      <c r="I4" t="n">
-        <v>106.20667</v>
-      </c>
-      <c r="J4" t="n">
-        <v>19.92268</v>
-      </c>
-      <c r="K4" t="n">
-        <v>24.5719</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3109.76</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.57684</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.19719</v>
-      </c>
-      <c r="O4" t="n">
-        <v>87.18662999999999</v>
-      </c>
-      <c r="P4" t="n">
-        <v>57.41282</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>6.74434</v>
-      </c>
-      <c r="R4" t="n">
-        <v>18.11095</v>
-      </c>
-      <c r="S4" t="n">
-        <v>7.31661</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.21378</v>
-      </c>
-      <c r="U4" t="n">
-        <v>21.11216</v>
-      </c>
-      <c r="V4" t="n">
-        <v>204.21299</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7.23845</v>
-      </c>
-      <c r="X4" t="n">
-        <v>114.77981</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>543.29979</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>138.69108</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>104.21763</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>8.065390000000001</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>143.24655</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>223.08922</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>84.36759000000001</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>12.62943</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>50.46846</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>27.34725</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>89.52556</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8.56921</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>45.39403</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>38.75258</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>96.33219</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>293.46808</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>4.56754</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
